--- a/CashFlow/BAX_cashflow.xlsx
+++ b/CashFlow/BAX_cashflow.xlsx
@@ -75,8 +75,8 @@
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="27.500000000000004"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="15.400000000000002"/>
@@ -758,22 +758,22 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>5680000000.0</v>
+        <v>-208000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>7503000000.0</v>
+        <v>-162000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>7240000000.0</v>
+        <v>-213000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>5255000000.0</v>
+        <v>-166000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3341000000.0</v>
+        <v>3000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>1565000000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>-59000000.0</v>
@@ -887,22 +887,22 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>7746000000.0</v>
+        <v>151000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>10292000000.0</v>
+        <v>143000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>10096000000.0</v>
+        <v>73000000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>7511000000.0</v>
+        <v>39000000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>5029000000.0</v>
+        <v>13000000.0</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>2250000000.0</v>
+        <v>-212000000.0</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>-157000000.0</v>
@@ -3607,10 +3607,8 @@
           <t>Capital Stock Change</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>-569000000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>-298000000.0</v>
